--- a/data/trans_orig/P79A1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79A1_2023-Estudios-trans_orig.xlsx
@@ -942,19 +942,19 @@
         <v>22022</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16051</v>
+        <v>16326</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24781</v>
+        <v>24784</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8534596114728197</v>
+        <v>0.8534596114728195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6220772954207895</v>
+        <v>0.6327120928438481</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9603799678624347</v>
+        <v>0.9604940531897607</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -963,7 +963,7 @@
         <v>17200</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13761</v>
+        <v>13955</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>18777</v>
@@ -972,7 +972,7 @@
         <v>0.9160380609914315</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7328492273350685</v>
+        <v>0.7432058526066966</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -984,19 +984,19 @@
         <v>39222</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32870</v>
+        <v>33367</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42939</v>
+        <v>42834</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8798175844927675</v>
+        <v>0.8798175844927673</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7373359370749172</v>
+        <v>0.7484803947152963</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9631912294709841</v>
+        <v>0.9608402123565056</v>
       </c>
     </row>
     <row r="8">
@@ -1013,19 +1013,19 @@
         <v>3781</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9752</v>
+        <v>9477</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1465403885271805</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03962003213756522</v>
+        <v>0.03950594681023926</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3779227045792104</v>
+        <v>0.3672879071561487</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5016</v>
+        <v>4822</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08396193900856865</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2671507726649303</v>
+        <v>0.2567941473933031</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1055,19 +1055,19 @@
         <v>5358</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1641</v>
+        <v>1746</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11710</v>
+        <v>11213</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1201824155072326</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03680877052901588</v>
+        <v>0.03915978764349422</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2626640629250828</v>
+        <v>0.2515196052847036</v>
       </c>
     </row>
     <row r="9">
@@ -1328,19 +1328,19 @@
         <v>30961</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24705</v>
+        <v>24518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33719</v>
+        <v>33707</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8911634239501254</v>
+        <v>0.8911634239501253</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7110862980781096</v>
+        <v>0.705715058155631</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.970559150217009</v>
+        <v>0.9702157100088056</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1349,19 +1349,19 @@
         <v>22604</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18793</v>
+        <v>18966</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24806</v>
+        <v>24818</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.886454536638155</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.737008594944676</v>
+        <v>0.7437806535327599</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9728278536387069</v>
+        <v>0.9733082937331488</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>57</v>
@@ -1370,19 +1370,19 @@
         <v>53565</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46745</v>
+        <v>47216</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57291</v>
+        <v>57359</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8891702126010994</v>
+        <v>0.8891702126010995</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7759641094291435</v>
+        <v>0.7837797016899024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9510349102973898</v>
+        <v>0.9521533868826897</v>
       </c>
     </row>
     <row r="14">
@@ -1399,19 +1399,19 @@
         <v>3781</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10037</v>
+        <v>10224</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1088365760498748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02944084978299099</v>
+        <v>0.02978428999119431</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2889137019218905</v>
+        <v>0.2942849418443691</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1420,19 +1420,19 @@
         <v>2895</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6706</v>
+        <v>6533</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1135454633618452</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02717214636129301</v>
+        <v>0.02669170626685134</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2629914050553239</v>
+        <v>0.2562193464672403</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1441,19 +1441,19 @@
         <v>6676</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2950</v>
+        <v>2882</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13496</v>
+        <v>13025</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1108297873989006</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04896508970260999</v>
+        <v>0.04784661311731012</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2240358905708565</v>
+        <v>0.2162202983100977</v>
       </c>
     </row>
     <row r="15">
